--- a/data/pca/factorExposure/factorExposure_2018-09-27.xlsx
+++ b/data/pca/factorExposure/factorExposure_2018-09-27.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -29,6 +29,12 @@
   </si>
   <si>
     <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -695,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -717,70 +723,94 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>-0.03897368882274765</v>
+        <v>0.0344251614022174</v>
       </c>
       <c r="C2">
-        <v>-0.05314947332856364</v>
+        <v>-0.006611295665045546</v>
       </c>
       <c r="D2">
-        <v>-0.03498219205458741</v>
+        <v>-0.009968972245333021</v>
       </c>
       <c r="E2">
-        <v>-0.04763568446045701</v>
+        <v>0.01552744084949664</v>
       </c>
       <c r="F2">
-        <v>-0.1318157268286649</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>0.02765517215481438</v>
+      </c>
+      <c r="G2">
+        <v>0.07671304915615929</v>
+      </c>
+      <c r="H2">
+        <v>0.01305401936628496</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B3">
-        <v>-0.1286806490091932</v>
+        <v>0.0826322853127993</v>
       </c>
       <c r="C3">
-        <v>-0.02274531753418744</v>
+        <v>0.03397821096236177</v>
       </c>
       <c r="D3">
-        <v>-0.02998966991671393</v>
+        <v>-0.01986413461009592</v>
       </c>
       <c r="E3">
-        <v>-0.07534237660982081</v>
+        <v>0.009105940690479602</v>
       </c>
       <c r="F3">
-        <v>-0.3486100900794376</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>0.001404422069417241</v>
+      </c>
+      <c r="G3">
+        <v>0.2668622802324531</v>
+      </c>
+      <c r="H3">
+        <v>0.02364026351416377</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>-0.04601848488562197</v>
+        <v>0.04574318769857704</v>
       </c>
       <c r="C4">
-        <v>-0.03568978826828933</v>
+        <v>0.005329650973971718</v>
       </c>
       <c r="D4">
-        <v>0.004368669713466223</v>
+        <v>-0.02263095368462282</v>
       </c>
       <c r="E4">
-        <v>-0.06691349441186967</v>
+        <v>-0.02225853575465235</v>
       </c>
       <c r="F4">
-        <v>-0.06499972442038544</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>0.0631229753068669</v>
+      </c>
+      <c r="G4">
+        <v>0.04431101547581954</v>
+      </c>
+      <c r="H4">
+        <v>0.02548411534867415</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -797,190 +827,250 @@
       <c r="F5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>-0.01064020617647537</v>
+        <v>0.03070484764241179</v>
       </c>
       <c r="C6">
-        <v>-0.0009039471403629432</v>
+        <v>0.003738323981461623</v>
       </c>
       <c r="D6">
-        <v>-0.01025910063067884</v>
+        <v>-0.03224832500088418</v>
       </c>
       <c r="E6">
-        <v>-0.008860066919283698</v>
+        <v>-0.006720712260241614</v>
       </c>
       <c r="F6">
-        <v>-0.01216982674342794</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>0.04019387524837077</v>
+      </c>
+      <c r="G6">
+        <v>0.00995708602943257</v>
+      </c>
+      <c r="H6">
+        <v>0.05024804008488563</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>-0.02331146085365582</v>
+        <v>0.02090715877328953</v>
       </c>
       <c r="C7">
-        <v>-0.02034784279021551</v>
+        <v>0.002043020831844408</v>
       </c>
       <c r="D7">
-        <v>-0.02631740943724243</v>
+        <v>-0.01248900514410759</v>
       </c>
       <c r="E7">
-        <v>-0.03210504520810689</v>
+        <v>-0.03603606776258583</v>
       </c>
       <c r="F7">
-        <v>-0.0713370988690602</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>0.02609656459574838</v>
+      </c>
+      <c r="G7">
+        <v>0.03304690455413387</v>
+      </c>
+      <c r="H7">
+        <v>0.01675853409647924</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>-0.008316657170292808</v>
+        <v>0.0008474745642400674</v>
       </c>
       <c r="C8">
-        <v>-0.01046708976130549</v>
+        <v>0.000441049054413746</v>
       </c>
       <c r="D8">
-        <v>0.00574150882331081</v>
+        <v>-0.01309830279220164</v>
       </c>
       <c r="E8">
-        <v>-0.07252347026304977</v>
+        <v>-0.01309522646250371</v>
       </c>
       <c r="F8">
-        <v>-0.08896242646403771</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>0.02790662014275148</v>
+      </c>
+      <c r="G8">
+        <v>0.05032345705650366</v>
+      </c>
+      <c r="H8">
+        <v>0.006575841132693988</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>-0.03594345795425041</v>
+        <v>0.03582650449418199</v>
       </c>
       <c r="C9">
-        <v>-0.0298131388207755</v>
+        <v>0.007190281702868254</v>
       </c>
       <c r="D9">
-        <v>0.01993887590114101</v>
+        <v>-0.01840892151480748</v>
       </c>
       <c r="E9">
-        <v>-0.06762979562235133</v>
+        <v>-0.02060000371845568</v>
       </c>
       <c r="F9">
-        <v>-0.07579966988230448</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>0.04008689548530821</v>
+      </c>
+      <c r="G9">
+        <v>0.06123155558116987</v>
+      </c>
+      <c r="H9">
+        <v>0.0284521327578134</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>-0.05772775199544327</v>
+        <v>0.07714587471467783</v>
       </c>
       <c r="C10">
-        <v>-0.04769338298696104</v>
+        <v>0.04409387618791753</v>
       </c>
       <c r="D10">
-        <v>0.02052769068922835</v>
+        <v>0.1405437401825957</v>
       </c>
       <c r="E10">
-        <v>0.110316354570133</v>
+        <v>0.02403054878766681</v>
       </c>
       <c r="F10">
-        <v>-0.05900810087129052</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>-0.08875108870101327</v>
+      </c>
+      <c r="G10">
+        <v>0.03877128461212979</v>
+      </c>
+      <c r="H10">
+        <v>0.005074160441933769</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>-0.03096244498211424</v>
+        <v>0.02169327113621155</v>
       </c>
       <c r="C11">
-        <v>-0.0109530737192056</v>
+        <v>0.01347673834365156</v>
       </c>
       <c r="D11">
-        <v>-0.01332265905372563</v>
+        <v>-0.03023162960053034</v>
       </c>
       <c r="E11">
-        <v>-0.03162094098471164</v>
+        <v>0.002560409202237665</v>
       </c>
       <c r="F11">
-        <v>-0.03928909065205909</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>0.02526138096585862</v>
+      </c>
+      <c r="G11">
+        <v>0.03283355597107387</v>
+      </c>
+      <c r="H11">
+        <v>0.02664892029800013</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>-0.0378657021447251</v>
+        <v>0.03007260253749969</v>
       </c>
       <c r="C12">
-        <v>-0.01161092546991289</v>
+        <v>0.01336194190925612</v>
       </c>
       <c r="D12">
-        <v>-0.003651977047057841</v>
+        <v>-0.0299949291826176</v>
       </c>
       <c r="E12">
-        <v>-0.04568966159312566</v>
+        <v>-0.00797246940105846</v>
       </c>
       <c r="F12">
-        <v>-0.02667534985232456</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>0.0289063748623009</v>
+      </c>
+      <c r="G12">
+        <v>0.007908740314784208</v>
+      </c>
+      <c r="H12">
+        <v>0.01501832113882128</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>-0.01865154384273967</v>
+        <v>0.02738529363495056</v>
       </c>
       <c r="C13">
-        <v>-0.02153040752094073</v>
+        <v>-0.007825752048654145</v>
       </c>
       <c r="D13">
-        <v>-0.03298491811618798</v>
+        <v>-0.0005607133000570955</v>
       </c>
       <c r="E13">
-        <v>-0.01602444163769218</v>
+        <v>0.01661791115028902</v>
       </c>
       <c r="F13">
-        <v>-0.08345994075686645</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>0.02061252919314286</v>
+      </c>
+      <c r="G13">
+        <v>0.06189040071760302</v>
+      </c>
+      <c r="H13">
+        <v>0.02401933586579004</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>-0.01095017964559102</v>
+        <v>0.01553607506538225</v>
       </c>
       <c r="C14">
-        <v>-0.02231936312727131</v>
+        <v>0.003348873975436435</v>
       </c>
       <c r="D14">
-        <v>-0.002276596520269986</v>
+        <v>0.0001890771215328152</v>
       </c>
       <c r="E14">
-        <v>-0.03653598221597634</v>
+        <v>-0.007713816180515361</v>
       </c>
       <c r="F14">
-        <v>-0.06336090858639121</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>0.02623043751386435</v>
+      </c>
+      <c r="G14">
+        <v>0.03920667314060402</v>
+      </c>
+      <c r="H14">
+        <v>-0.02113179253158402</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -997,30 +1087,42 @@
       <c r="F15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>-0.02373206837692334</v>
+        <v>0.02149980199924484</v>
       </c>
       <c r="C16">
-        <v>-0.01228413113369872</v>
+        <v>0.01341577858990864</v>
       </c>
       <c r="D16">
-        <v>-0.01212987265858459</v>
+        <v>-0.0292070041666185</v>
       </c>
       <c r="E16">
-        <v>-0.03318501093255592</v>
+        <v>-0.002226089435164577</v>
       </c>
       <c r="F16">
-        <v>-0.03967029306365374</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>0.02812255879583198</v>
+      </c>
+      <c r="G16">
+        <v>0.02599503648896409</v>
+      </c>
+      <c r="H16">
+        <v>0.02036635232816391</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1037,10 +1139,16 @@
       <c r="F17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1057,70 +1165,94 @@
       <c r="F18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B19">
-        <v>-0.03692103507378398</v>
+        <v>0.03551807681949647</v>
       </c>
       <c r="C19">
-        <v>-0.01301744282915611</v>
+        <v>0.008856364225979125</v>
       </c>
       <c r="D19">
-        <v>-0.01940488027074632</v>
+        <v>-0.008457815685932686</v>
       </c>
       <c r="E19">
-        <v>-0.04009929666823939</v>
+        <v>0.001877455326747735</v>
       </c>
       <c r="F19">
-        <v>-0.09553497949915665</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+        <v>0.03245299588560085</v>
+      </c>
+      <c r="G19">
+        <v>0.06627110651749769</v>
+      </c>
+      <c r="H19">
+        <v>0.03542566133977591</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>0.007294445352386371</v>
+        <v>0.007275613725780034</v>
       </c>
       <c r="C20">
-        <v>-0.02153184156269505</v>
+        <v>-0.006236088990433128</v>
       </c>
       <c r="D20">
-        <v>-0.003656441324337874</v>
+        <v>-0.0007828290571957919</v>
       </c>
       <c r="E20">
-        <v>-0.02727082415792598</v>
+        <v>-0.002084623188180985</v>
       </c>
       <c r="F20">
-        <v>-0.06002321201355004</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+        <v>0.01798038310749978</v>
+      </c>
+      <c r="G20">
+        <v>0.04782629859782191</v>
+      </c>
+      <c r="H20">
+        <v>-0.01206402891587801</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>0.003815112636766683</v>
+        <v>0.0228725204024234</v>
       </c>
       <c r="C21">
-        <v>0.002478376962750284</v>
+        <v>-0.001310924821465961</v>
       </c>
       <c r="D21">
-        <v>-0.007118214266210302</v>
+        <v>8.085043090380057e-05</v>
       </c>
       <c r="E21">
-        <v>-0.03405007568271354</v>
+        <v>-0.01225668057844854</v>
       </c>
       <c r="F21">
-        <v>-0.08892337751128887</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+        <v>0.00820141939074528</v>
+      </c>
+      <c r="G21">
+        <v>0.05336709956358453</v>
+      </c>
+      <c r="H21">
+        <v>0.008472909645530666</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1137,10 +1269,16 @@
       <c r="F22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:6">
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1157,230 +1295,302 @@
       <c r="F23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:6">
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>-0.0252018276510578</v>
+        <v>0.02224443703703654</v>
       </c>
       <c r="C24">
-        <v>-0.01182231117846148</v>
+        <v>0.008587520437355646</v>
       </c>
       <c r="D24">
-        <v>-0.008974804314465399</v>
+        <v>-0.02699530247409622</v>
       </c>
       <c r="E24">
-        <v>-0.02628482264345858</v>
+        <v>-0.001883522938567735</v>
       </c>
       <c r="F24">
-        <v>-0.03984994308627785</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+        <v>0.02289972809932861</v>
+      </c>
+      <c r="G24">
+        <v>0.02737942850041815</v>
+      </c>
+      <c r="H24">
+        <v>0.02728705052951779</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>-0.02945222041023593</v>
+        <v>0.03261908653576775</v>
       </c>
       <c r="C25">
-        <v>-0.01040774944101426</v>
+        <v>0.009140571301819679</v>
       </c>
       <c r="D25">
-        <v>-0.007427111125973212</v>
+        <v>-0.02124396263988105</v>
       </c>
       <c r="E25">
-        <v>-0.03320226498504733</v>
+        <v>-0.001789801306808612</v>
       </c>
       <c r="F25">
-        <v>-0.04234766215920208</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
+        <v>0.02770699165703521</v>
+      </c>
+      <c r="G25">
+        <v>0.03227702482476315</v>
+      </c>
+      <c r="H25">
+        <v>0.02974915469633081</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>-0.01650446787538347</v>
+        <v>0.0203971966470762</v>
       </c>
       <c r="C26">
-        <v>-0.0005108452871094197</v>
+        <v>-0.01442386993082284</v>
       </c>
       <c r="D26">
-        <v>-0.03472752144984917</v>
+        <v>-0.006726468837160898</v>
       </c>
       <c r="E26">
-        <v>-0.04300519467734364</v>
+        <v>0.006103982910176746</v>
       </c>
       <c r="F26">
-        <v>-0.06184636786647105</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
+        <v>0.006743516746273213</v>
+      </c>
+      <c r="G26">
+        <v>0.03742282553659958</v>
+      </c>
+      <c r="H26">
+        <v>-0.0008293996208038027</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B27">
-        <v>-0.07213820831131154</v>
+        <v>0.03149278649578705</v>
       </c>
       <c r="C27">
-        <v>-0.05048365918672913</v>
+        <v>0.02024620772673473</v>
       </c>
       <c r="D27">
-        <v>0.005349716582632636</v>
+        <v>-0.00261058312056139</v>
       </c>
       <c r="E27">
-        <v>-0.04945296008612015</v>
+        <v>-0.004205617866278999</v>
       </c>
       <c r="F27">
-        <v>-0.06509350756627048</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
+        <v>0.02530663944146623</v>
+      </c>
+      <c r="G27">
+        <v>0.02652168849343894</v>
+      </c>
+      <c r="H27">
+        <v>-0.0015064611682181</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>-0.08464083343567561</v>
+        <v>0.1212945102373638</v>
       </c>
       <c r="C28">
-        <v>-0.06184300493683945</v>
+        <v>0.05420032909595195</v>
       </c>
       <c r="D28">
-        <v>0.04104178259368762</v>
+        <v>0.2065687429347777</v>
       </c>
       <c r="E28">
-        <v>0.1759604220228113</v>
+        <v>0.03075707854983907</v>
       </c>
       <c r="F28">
-        <v>-0.05420779524952387</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
+        <v>-0.1255553682752226</v>
+      </c>
+      <c r="G28">
+        <v>0.01840059418730215</v>
+      </c>
+      <c r="H28">
+        <v>-0.006654065579635451</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>-0.01918872802532721</v>
+        <v>0.02058826223828276</v>
       </c>
       <c r="C29">
-        <v>-0.02355972978106483</v>
+        <v>0.00675505580829317</v>
       </c>
       <c r="D29">
-        <v>0.002089087887972487</v>
+        <v>-0.002629382001545799</v>
       </c>
       <c r="E29">
-        <v>-0.05662092426014986</v>
+        <v>-0.008758787427388505</v>
       </c>
       <c r="F29">
-        <v>-0.05424334476892888</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
+        <v>0.02916419659547743</v>
+      </c>
+      <c r="G29">
+        <v>0.03294621093754413</v>
+      </c>
+      <c r="H29">
+        <v>-0.02042006069351435</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>-0.07699425849418025</v>
+        <v>0.05425870744342941</v>
       </c>
       <c r="C30">
-        <v>-0.05605034677136602</v>
+        <v>0.008734088838551285</v>
       </c>
       <c r="D30">
-        <v>-0.03618259942253386</v>
+        <v>-0.0484391124943894</v>
       </c>
       <c r="E30">
-        <v>-0.09419294318995831</v>
+        <v>0.03455825571606556</v>
       </c>
       <c r="F30">
-        <v>-0.07745230216475484</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
+        <v>0.08211335524236747</v>
+      </c>
+      <c r="G30">
+        <v>0.06516917866414934</v>
+      </c>
+      <c r="H30">
+        <v>0.03832044636165931</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>-0.05740575076863899</v>
+        <v>0.05179459119037191</v>
       </c>
       <c r="C31">
-        <v>-0.01842730444563154</v>
+        <v>0.02647004697216497</v>
       </c>
       <c r="D31">
-        <v>-0.04458642648230739</v>
+        <v>-0.01851512363966289</v>
       </c>
       <c r="E31">
-        <v>-0.03335042031546099</v>
+        <v>0.008851511584182795</v>
       </c>
       <c r="F31">
-        <v>-0.04028080368269214</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
+        <v>0.02185308624935846</v>
+      </c>
+      <c r="G31">
+        <v>0.01727386894555306</v>
+      </c>
+      <c r="H31">
+        <v>-0.01557732884060272</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>-0.0105795620366035</v>
+        <v>0.00507648804115369</v>
       </c>
       <c r="C32">
-        <v>-0.02266331380787584</v>
+        <v>0.01505404656954651</v>
       </c>
       <c r="D32">
-        <v>0.002959313790730143</v>
+        <v>0.007727843130987527</v>
       </c>
       <c r="E32">
-        <v>-0.07325165613921759</v>
+        <v>-0.01808927743899628</v>
       </c>
       <c r="F32">
-        <v>-0.07362486986698107</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
+        <v>0.04430412476924003</v>
+      </c>
+      <c r="G32">
+        <v>0.0502405734999541</v>
+      </c>
+      <c r="H32">
+        <v>0.04119106545210858</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>-0.04817793803799171</v>
+        <v>0.03850981352157663</v>
       </c>
       <c r="C33">
-        <v>-0.003257408596516464</v>
+        <v>0.008895164095997117</v>
       </c>
       <c r="D33">
-        <v>-0.04105212358251536</v>
+        <v>-0.02950479520792877</v>
       </c>
       <c r="E33">
-        <v>-0.06536782879985513</v>
+        <v>0.02095732749126512</v>
       </c>
       <c r="F33">
-        <v>-0.09252359850175583</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
+        <v>0.01738580101319543</v>
+      </c>
+      <c r="G33">
+        <v>0.05903358104643122</v>
+      </c>
+      <c r="H33">
+        <v>0.0155955090698076</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>-0.02827807463751402</v>
+        <v>0.02382258402022897</v>
       </c>
       <c r="C34">
-        <v>-0.01638182809004584</v>
+        <v>0.02247613610430553</v>
       </c>
       <c r="D34">
-        <v>-0.009911495520498345</v>
+        <v>-0.02575301510330072</v>
       </c>
       <c r="E34">
-        <v>-0.03718310933675704</v>
+        <v>-0.006599696859707993</v>
       </c>
       <c r="F34">
-        <v>-0.04624080333850725</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
+        <v>0.02808883635555594</v>
+      </c>
+      <c r="G34">
+        <v>0.02574238339013045</v>
+      </c>
+      <c r="H34">
+        <v>0.02516831381442284</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1397,30 +1607,42 @@
       <c r="F35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:6">
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>-0.01197636400911662</v>
+        <v>0.01843232321320703</v>
       </c>
       <c r="C36">
-        <v>-0.009849269006103245</v>
+        <v>-0.001050461713847151</v>
       </c>
       <c r="D36">
-        <v>-0.001060297531471557</v>
+        <v>0.00190675606159859</v>
       </c>
       <c r="E36">
-        <v>-0.0290877323672545</v>
+        <v>-0.002404452268384314</v>
       </c>
       <c r="F36">
-        <v>-0.03364066310493258</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
+        <v>0.006621292149584579</v>
+      </c>
+      <c r="G36">
+        <v>0.02165265871056016</v>
+      </c>
+      <c r="H36">
+        <v>-0.002865016441237322</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1437,150 +1659,198 @@
       <c r="F37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:6">
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>-0.006239038069633555</v>
+        <v>0.01264851747061723</v>
       </c>
       <c r="C38">
-        <v>0.002727285459904237</v>
+        <v>0.01775817828333341</v>
       </c>
       <c r="D38">
-        <v>0.01571560205047495</v>
+        <v>0.002293107217651397</v>
       </c>
       <c r="E38">
-        <v>0.004955068219621338</v>
+        <v>-0.007275086204366453</v>
       </c>
       <c r="F38">
-        <v>-0.00677484469096091</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
+        <v>0.009718577931536262</v>
+      </c>
+      <c r="G38">
+        <v>0.02605917421307129</v>
+      </c>
+      <c r="H38">
+        <v>0.01698728453901683</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>-0.03652583312168595</v>
+        <v>0.02493909274292952</v>
       </c>
       <c r="C39">
-        <v>-0.02414452988916882</v>
+        <v>0.007906022364313203</v>
       </c>
       <c r="D39">
-        <v>-0.02719709335976423</v>
+        <v>-0.06093788564621739</v>
       </c>
       <c r="E39">
-        <v>-0.03425507677270307</v>
+        <v>0.0001780472146586375</v>
       </c>
       <c r="F39">
-        <v>-0.05143822461136578</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
+        <v>0.05066415787635633</v>
+      </c>
+      <c r="G39">
+        <v>0.05196883669670563</v>
+      </c>
+      <c r="H39">
+        <v>0.04921982595929517</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>-0.0278607478576888</v>
+        <v>0.02931771170716732</v>
       </c>
       <c r="C40">
-        <v>-0.03842402384724244</v>
+        <v>0.007497726773581988</v>
       </c>
       <c r="D40">
-        <v>-0.05098829598361145</v>
+        <v>-0.01934713927256292</v>
       </c>
       <c r="E40">
-        <v>-0.0399270399424797</v>
+        <v>0.01866926490245675</v>
       </c>
       <c r="F40">
-        <v>-0.07408206043245281</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
+        <v>0.04049887227706903</v>
+      </c>
+      <c r="G40">
+        <v>0.03731721720260314</v>
+      </c>
+      <c r="H40">
+        <v>0.04321670823690694</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>0.003216729600444288</v>
+        <v>0.007555295481083991</v>
       </c>
       <c r="C41">
-        <v>0.009671080598023378</v>
+        <v>-0.0002723843631981142</v>
       </c>
       <c r="D41">
-        <v>-0.006578319583603742</v>
+        <v>0.005538298182199552</v>
       </c>
       <c r="E41">
-        <v>-0.02032120162998857</v>
+        <v>0.001321460879732672</v>
       </c>
       <c r="F41">
-        <v>-0.0164489977234994</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
+        <v>-0.005958022658544246</v>
+      </c>
+      <c r="G41">
+        <v>0.0059829048292833</v>
+      </c>
+      <c r="H41">
+        <v>-0.01837268823864502</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B42">
-        <v>-0.3916947908701162</v>
+        <v>0.2435435710864386</v>
       </c>
       <c r="C42">
-        <v>0.8801401943472552</v>
+        <v>-0.05173014697895006</v>
       </c>
       <c r="D42">
-        <v>-0.1809051186782631</v>
+        <v>-0.6282264001667056</v>
       </c>
       <c r="E42">
-        <v>0.08936529034891612</v>
+        <v>0.08782630790319451</v>
       </c>
       <c r="F42">
-        <v>0.02261410086725533</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
+        <v>-0.7158297497459502</v>
+      </c>
+      <c r="G42">
+        <v>-0.07539282231785722</v>
+      </c>
+      <c r="H42">
+        <v>0.0202517455369237</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>0.01006921074080926</v>
+        <v>0.004815697284648822</v>
       </c>
       <c r="C43">
-        <v>0.004545467785165036</v>
+        <v>-0.003283035196595071</v>
       </c>
       <c r="D43">
-        <v>-0.01109787236951369</v>
+        <v>0.007259642927180304</v>
       </c>
       <c r="E43">
-        <v>-0.02082140394799</v>
+        <v>0.005528440649499631</v>
       </c>
       <c r="F43">
-        <v>-0.03283508202940268</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
+        <v>-0.0100600217014735</v>
+      </c>
+      <c r="G43">
+        <v>0.01437185534711699</v>
+      </c>
+      <c r="H43">
+        <v>-0.01047638769672113</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>-0.01474554243528078</v>
+        <v>0.01079154777982129</v>
       </c>
       <c r="C44">
-        <v>-0.007437376494747491</v>
+        <v>0.001215880370821186</v>
       </c>
       <c r="D44">
-        <v>-0.01946228216586577</v>
+        <v>-0.02281255301567113</v>
       </c>
       <c r="E44">
-        <v>-0.0535234938785433</v>
+        <v>-0.0033957635666953</v>
       </c>
       <c r="F44">
-        <v>-0.1851748760520753</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
+        <v>0.00989720414178734</v>
+      </c>
+      <c r="G44">
+        <v>0.08614427064975222</v>
+      </c>
+      <c r="H44">
+        <v>0.01294421857906613</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1597,70 +1867,94 @@
       <c r="F45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:6">
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>-0.01684840348497885</v>
+        <v>0.02142196441448958</v>
       </c>
       <c r="C46">
-        <v>-0.01965373340682648</v>
+        <v>0.003020038300549505</v>
       </c>
       <c r="D46">
-        <v>-0.0130449302993624</v>
+        <v>-0.007000214700323299</v>
       </c>
       <c r="E46">
-        <v>-0.05518141234191811</v>
+        <v>0.002039808768303339</v>
       </c>
       <c r="F46">
-        <v>-0.05870170653303072</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
+        <v>0.03430516969197832</v>
+      </c>
+      <c r="G46">
+        <v>0.04871613112864898</v>
+      </c>
+      <c r="H46">
+        <v>-0.01774770000722592</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>-0.09281319971698999</v>
+        <v>0.07069498336420139</v>
       </c>
       <c r="C47">
-        <v>-0.0343051097055324</v>
+        <v>0.0470342402270626</v>
       </c>
       <c r="D47">
-        <v>-0.02323432842697636</v>
+        <v>-0.02246326672926696</v>
       </c>
       <c r="E47">
-        <v>-0.05332378866879442</v>
+        <v>0.004461838245594277</v>
       </c>
       <c r="F47">
-        <v>-0.005145772199037323</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
+        <v>0.03348733675475152</v>
+      </c>
+      <c r="G47">
+        <v>-0.0154769620871818</v>
+      </c>
+      <c r="H47">
+        <v>-0.03118823239155389</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>-0.007390402505463836</v>
+        <v>0.01642788079955981</v>
       </c>
       <c r="C48">
-        <v>-0.006020229957181722</v>
+        <v>0.008730386571053182</v>
       </c>
       <c r="D48">
-        <v>-0.01280186486286685</v>
+        <v>-0.004738661072889179</v>
       </c>
       <c r="E48">
-        <v>-0.04434967054018152</v>
+        <v>0.001105245692253442</v>
       </c>
       <c r="F48">
-        <v>-0.04806609018836099</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
+        <v>0.01261166425765126</v>
+      </c>
+      <c r="G48">
+        <v>0.02750810709495522</v>
+      </c>
+      <c r="H48">
+        <v>0.0006766078756861446</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1677,50 +1971,68 @@
       <c r="F49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:6">
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>-0.08451934075034086</v>
+        <v>0.06421579481920157</v>
       </c>
       <c r="C50">
-        <v>-0.02009692472114995</v>
+        <v>0.03990518916265253</v>
       </c>
       <c r="D50">
-        <v>-0.03554969326898832</v>
+        <v>-0.03504802442016195</v>
       </c>
       <c r="E50">
-        <v>-0.05593940682455365</v>
+        <v>-0.009452811727970658</v>
       </c>
       <c r="F50">
-        <v>-0.03395562736874461</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
+        <v>0.03292887793857524</v>
+      </c>
+      <c r="G50">
+        <v>0.01728454622854537</v>
+      </c>
+      <c r="H50">
+        <v>-0.02522278085167069</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>-0.03736561308004689</v>
+        <v>0.02545389472853425</v>
       </c>
       <c r="C51">
-        <v>-0.000981185089076042</v>
+        <v>0.005875792915482839</v>
       </c>
       <c r="D51">
-        <v>-0.0452645535085444</v>
+        <v>0.004363845154278021</v>
       </c>
       <c r="E51">
-        <v>-0.01084234467990272</v>
+        <v>0.01493690833544986</v>
       </c>
       <c r="F51">
-        <v>-0.1533144707527983</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
+        <v>-0.0166419622876457</v>
+      </c>
+      <c r="G51">
+        <v>0.08301247681710583</v>
+      </c>
+      <c r="H51">
+        <v>0.02142967236596857</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1737,190 +2049,250 @@
       <c r="F52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:6">
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>-0.1025246830692163</v>
+        <v>0.08997693145467715</v>
       </c>
       <c r="C53">
-        <v>-0.04809793887033983</v>
+        <v>0.05916990939590758</v>
       </c>
       <c r="D53">
-        <v>-0.04107529793542995</v>
+        <v>-0.04590077350633195</v>
       </c>
       <c r="E53">
-        <v>-0.0625255155178273</v>
+        <v>0.00235171249224515</v>
       </c>
       <c r="F53">
-        <v>0.05429250608447303</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
+        <v>0.06796105828957726</v>
+      </c>
+      <c r="G53">
+        <v>-0.05968945649102755</v>
+      </c>
+      <c r="H53">
+        <v>-0.03461843620097272</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>-0.01974477145426902</v>
+        <v>0.02142367072902175</v>
       </c>
       <c r="C54">
-        <v>-0.03701605547846307</v>
+        <v>0.01772630646007876</v>
       </c>
       <c r="D54">
-        <v>-0.002667678441410544</v>
+        <v>0.02522852745714398</v>
       </c>
       <c r="E54">
-        <v>-0.03191329361189201</v>
+        <v>-0.001318945074017499</v>
       </c>
       <c r="F54">
-        <v>-0.07616637466723321</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
+        <v>0.01011056818350187</v>
+      </c>
+      <c r="G54">
+        <v>0.04177019919926536</v>
+      </c>
+      <c r="H54">
+        <v>-0.01831096927598894</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>-0.1002868946521174</v>
+        <v>0.07762998760193204</v>
       </c>
       <c r="C55">
-        <v>-0.03488574484978434</v>
+        <v>0.05205819506916104</v>
       </c>
       <c r="D55">
-        <v>0.004329802854806828</v>
+        <v>-0.0443658649485152</v>
       </c>
       <c r="E55">
-        <v>-0.06421673272968786</v>
+        <v>-0.01088313586202783</v>
       </c>
       <c r="F55">
-        <v>0.05137371864429377</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
+        <v>0.0572325948993375</v>
+      </c>
+      <c r="G55">
+        <v>-0.03841982920617405</v>
+      </c>
+      <c r="H55">
+        <v>-0.04973084484438159</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>-0.139785828765625</v>
+        <v>0.1168659653749666</v>
       </c>
       <c r="C56">
-        <v>-0.07615184508038103</v>
+        <v>0.08388822754779758</v>
       </c>
       <c r="D56">
-        <v>-0.0262313275898667</v>
+        <v>-0.05909402294051493</v>
       </c>
       <c r="E56">
-        <v>-0.08080761495702266</v>
+        <v>-0.003025262612223086</v>
       </c>
       <c r="F56">
-        <v>0.1575862055802532</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
+        <v>0.09483901203341231</v>
+      </c>
+      <c r="G56">
+        <v>-0.1032522574249831</v>
+      </c>
+      <c r="H56">
+        <v>-0.02427897494438812</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B57">
-        <v>-0.04312395036050361</v>
+        <v>0.04249630387967294</v>
       </c>
       <c r="C57">
-        <v>-0.01633456498963604</v>
+        <v>-0.0005152385295501681</v>
       </c>
       <c r="D57">
-        <v>-0.02992359956882525</v>
+        <v>-0.02079857605815339</v>
       </c>
       <c r="E57">
-        <v>-0.02599344645959341</v>
+        <v>0.01021233437072572</v>
       </c>
       <c r="F57">
-        <v>-0.07255517122907641</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6">
+        <v>0.02912785488338533</v>
+      </c>
+      <c r="G57">
+        <v>0.06670303480497591</v>
+      </c>
+      <c r="H57">
+        <v>0.009388995896354313</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>-0.2032010033558244</v>
+        <v>0.1499858805681388</v>
       </c>
       <c r="C58">
-        <v>-0.06392585218460582</v>
+        <v>0.08097232192088097</v>
       </c>
       <c r="D58">
-        <v>-0.1050723119159069</v>
+        <v>-0.1209570357712273</v>
       </c>
       <c r="E58">
-        <v>-0.200192342146519</v>
+        <v>0.11368248413064</v>
       </c>
       <c r="F58">
-        <v>-0.3309278375587017</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
+        <v>0.07335625564766281</v>
+      </c>
+      <c r="G58">
+        <v>0.6642715997410711</v>
+      </c>
+      <c r="H58">
+        <v>-0.5681393302125755</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>-0.08134539311409851</v>
+        <v>0.1215902382733898</v>
       </c>
       <c r="C59">
-        <v>-0.08972641419992981</v>
+        <v>0.06136842620281118</v>
       </c>
       <c r="D59">
-        <v>0.03235781884796005</v>
+        <v>0.2036836355363732</v>
       </c>
       <c r="E59">
-        <v>0.1462086722630949</v>
+        <v>0.0472089062212299</v>
       </c>
       <c r="F59">
-        <v>-0.05206828085044451</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
+        <v>-0.1016376832571457</v>
+      </c>
+      <c r="G59">
+        <v>0.02620794413098075</v>
+      </c>
+      <c r="H59">
+        <v>0.02310651869980103</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>-0.167218620220876</v>
+        <v>0.1604065863548285</v>
       </c>
       <c r="C60">
-        <v>-0.07198430441508909</v>
+        <v>0.07431515180295969</v>
       </c>
       <c r="D60">
-        <v>-0.06327850110919638</v>
+        <v>-0.005235110270288755</v>
       </c>
       <c r="E60">
-        <v>-0.02224035442190496</v>
+        <v>0.05590393211674823</v>
       </c>
       <c r="F60">
-        <v>-0.1043785610530645</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
+        <v>0.06894506911971955</v>
+      </c>
+      <c r="G60">
+        <v>0.1347526836597162</v>
+      </c>
+      <c r="H60">
+        <v>0.3680528440534697</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>-0.01840894113271282</v>
+        <v>0.02130399848459393</v>
       </c>
       <c r="C61">
-        <v>-0.01098875188691352</v>
+        <v>0.01149955858407173</v>
       </c>
       <c r="D61">
-        <v>-0.003824752881866933</v>
+        <v>-0.03192932606266127</v>
       </c>
       <c r="E61">
-        <v>-0.01851842192535435</v>
+        <v>-0.00411486651506189</v>
       </c>
       <c r="F61">
-        <v>-0.04503091626424896</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
+        <v>0.03516537462757456</v>
+      </c>
+      <c r="G61">
+        <v>0.03301170536978366</v>
+      </c>
+      <c r="H61">
+        <v>0.03721365207823318</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1937,150 +2309,198 @@
       <c r="F62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:6">
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>-0.01610345025661511</v>
+        <v>0.01399690796193065</v>
       </c>
       <c r="C63">
-        <v>-0.01682056166622273</v>
+        <v>0.001819881954108633</v>
       </c>
       <c r="D63">
-        <v>-0.01288094534293296</v>
+        <v>-0.004317252043270986</v>
       </c>
       <c r="E63">
-        <v>-0.04418201545377589</v>
+        <v>-0.001638748919823841</v>
       </c>
       <c r="F63">
-        <v>-0.02035733963029192</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
+        <v>0.02222186556082768</v>
+      </c>
+      <c r="G63">
+        <v>0.01791612309148961</v>
+      </c>
+      <c r="H63">
+        <v>-0.01114158390415006</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>-0.02823663005137517</v>
+        <v>0.0371718997379537</v>
       </c>
       <c r="C64">
-        <v>-0.02168811573829944</v>
+        <v>0.01865410832190305</v>
       </c>
       <c r="D64">
-        <v>0.01912443583201326</v>
+        <v>-0.02780759271139641</v>
       </c>
       <c r="E64">
-        <v>-0.04544908114714543</v>
+        <v>-0.01432891787450611</v>
       </c>
       <c r="F64">
-        <v>-0.02270676673182747</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
+        <v>0.03286030521226837</v>
+      </c>
+      <c r="G64">
+        <v>0.009877780547991231</v>
+      </c>
+      <c r="H64">
+        <v>0.02981535537418417</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>-0.01085353431255078</v>
+        <v>0.03583513890699728</v>
       </c>
       <c r="C65">
-        <v>0.0006039913294290743</v>
+        <v>0.004409042856607153</v>
       </c>
       <c r="D65">
-        <v>-0.009128159055514574</v>
+        <v>-0.03616791554618306</v>
       </c>
       <c r="E65">
-        <v>-0.005104115105392197</v>
+        <v>-0.006822909053064807</v>
       </c>
       <c r="F65">
-        <v>-0.007991445645545959</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
+        <v>0.04025767662923517</v>
+      </c>
+      <c r="G65">
+        <v>0.001718656978471823</v>
+      </c>
+      <c r="H65">
+        <v>0.05925266169692851</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>-0.03330936118718521</v>
+        <v>0.0301856890064016</v>
       </c>
       <c r="C66">
-        <v>-0.02753332223928356</v>
+        <v>0.01421417486705105</v>
       </c>
       <c r="D66">
-        <v>-0.02073593491806682</v>
+        <v>-0.06553244294472242</v>
       </c>
       <c r="E66">
-        <v>-0.03696398516137724</v>
+        <v>0.0053809308545893</v>
       </c>
       <c r="F66">
-        <v>-0.04795691885443885</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
+        <v>0.07066350101185784</v>
+      </c>
+      <c r="G66">
+        <v>0.04359205211338892</v>
+      </c>
+      <c r="H66">
+        <v>0.06193587639116453</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>-0.02556879381085318</v>
+        <v>0.03141593798446322</v>
       </c>
       <c r="C67">
-        <v>-0.007770673964258374</v>
+        <v>0.02510201721408701</v>
       </c>
       <c r="D67">
-        <v>0.0168430473648324</v>
+        <v>0.01054937111305107</v>
       </c>
       <c r="E67">
-        <v>0.03049653116957467</v>
+        <v>-0.002863737577335181</v>
       </c>
       <c r="F67">
-        <v>-0.01822811870384546</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
+        <v>0.01126300890775191</v>
+      </c>
+      <c r="G67">
+        <v>0.01739320648733163</v>
+      </c>
+      <c r="H67">
+        <v>0.03117300476193052</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>-0.09383398606838618</v>
+        <v>0.1249591622847768</v>
       </c>
       <c r="C68">
-        <v>-0.06833611655036803</v>
+        <v>0.03977339792677203</v>
       </c>
       <c r="D68">
-        <v>0.05091324742986764</v>
+        <v>0.1895658233142198</v>
       </c>
       <c r="E68">
-        <v>0.1706965483782892</v>
+        <v>0.03868473558118797</v>
       </c>
       <c r="F68">
-        <v>-0.006406699162418164</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
+        <v>-0.1195513825177486</v>
+      </c>
+      <c r="G68">
+        <v>0.01447767783923618</v>
+      </c>
+      <c r="H68">
+        <v>-0.05006030844072078</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>-0.07152544975245827</v>
+        <v>0.05496779164965324</v>
       </c>
       <c r="C69">
-        <v>-0.03339820060483439</v>
+        <v>0.04166555046381226</v>
       </c>
       <c r="D69">
-        <v>-0.02421691847448812</v>
+        <v>-0.02150426611309103</v>
       </c>
       <c r="E69">
-        <v>-0.01314936989196003</v>
+        <v>0.005193337878755624</v>
       </c>
       <c r="F69">
-        <v>-0.02164032052685064</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
+        <v>0.03235351137184967</v>
+      </c>
+      <c r="G69">
+        <v>-0.005937056750154797</v>
+      </c>
+      <c r="H69">
+        <v>-0.01095453114101292</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2097,170 +2517,224 @@
       <c r="F70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:6">
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>-0.1088268703166964</v>
+        <v>0.1205611798901784</v>
       </c>
       <c r="C71">
-        <v>-0.07125283852729401</v>
+        <v>0.04806492550082162</v>
       </c>
       <c r="D71">
-        <v>0.02548959157597091</v>
+        <v>0.1784315779651884</v>
       </c>
       <c r="E71">
-        <v>0.223191816148238</v>
+        <v>0.04204146363682384</v>
       </c>
       <c r="F71">
-        <v>-0.03407321748815437</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
+        <v>-0.1281226711049628</v>
+      </c>
+      <c r="G71">
+        <v>0.01940437932601182</v>
+      </c>
+      <c r="H71">
+        <v>-0.02384488135991263</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>-0.1126574333359162</v>
+        <v>0.08362125279302474</v>
       </c>
       <c r="C72">
-        <v>-0.1154934480768433</v>
+        <v>0.06477088557349187</v>
       </c>
       <c r="D72">
-        <v>-0.02119089497694976</v>
+        <v>-0.05622682224804537</v>
       </c>
       <c r="E72">
-        <v>-0.1021779633145503</v>
+        <v>0.006422061453630584</v>
       </c>
       <c r="F72">
-        <v>-0.08166105081155361</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6">
+        <v>0.1321194671163718</v>
+      </c>
+      <c r="G72">
+        <v>0.09139576091894848</v>
+      </c>
+      <c r="H72">
+        <v>0.1314823644988765</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>-0.2481670908724104</v>
+        <v>0.2284139645367403</v>
       </c>
       <c r="C73">
-        <v>-0.1036259110882587</v>
+        <v>0.1006246734518764</v>
       </c>
       <c r="D73">
-        <v>-0.06140610358742103</v>
+        <v>-0.03225884183927484</v>
       </c>
       <c r="E73">
-        <v>0.02647988717917199</v>
+        <v>0.08722090975738792</v>
       </c>
       <c r="F73">
-        <v>-0.218973984384674</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6">
+        <v>0.08139651720241949</v>
+      </c>
+      <c r="G73">
+        <v>0.2071132220062729</v>
+      </c>
+      <c r="H73">
+        <v>0.5100220737590294</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>-0.1223911996324988</v>
+        <v>0.1053528421903509</v>
       </c>
       <c r="C74">
-        <v>-0.0443196663045104</v>
+        <v>0.07530639316245329</v>
       </c>
       <c r="D74">
-        <v>-0.02973901286444071</v>
+        <v>-0.06010390770368827</v>
       </c>
       <c r="E74">
-        <v>-0.04091570264157565</v>
+        <v>0.003908095400789798</v>
       </c>
       <c r="F74">
-        <v>0.1200941443019954</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6">
+        <v>0.08065436942093412</v>
+      </c>
+      <c r="G74">
+        <v>-0.08657548397584609</v>
+      </c>
+      <c r="H74">
+        <v>-0.009488013403050829</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>-0.2173378614024906</v>
+        <v>0.210728687163891</v>
       </c>
       <c r="C75">
-        <v>-0.1161502279819045</v>
+        <v>0.1520385354492297</v>
       </c>
       <c r="D75">
-        <v>-0.06652498787060875</v>
+        <v>-0.07565040788209665</v>
       </c>
       <c r="E75">
-        <v>-0.0923140790844648</v>
+        <v>0.02473709514191012</v>
       </c>
       <c r="F75">
-        <v>0.1807550766328577</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6">
+        <v>0.150629027367862</v>
+      </c>
+      <c r="G75">
+        <v>-0.1626969942159602</v>
+      </c>
+      <c r="H75">
+        <v>-0.08353547524807604</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>-0.2567218920387679</v>
+        <v>0.1979359097568623</v>
       </c>
       <c r="C76">
-        <v>-0.1305197114196116</v>
+        <v>0.1472831509589204</v>
       </c>
       <c r="D76">
-        <v>-0.01233758782652469</v>
+        <v>-0.07314016510038288</v>
       </c>
       <c r="E76">
-        <v>-0.07634375127242495</v>
+        <v>-0.01530886438348755</v>
       </c>
       <c r="F76">
-        <v>0.2021388820592558</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6">
+        <v>0.1556377103365431</v>
+      </c>
+      <c r="G76">
+        <v>-0.1811536112617591</v>
+      </c>
+      <c r="H76">
+        <v>-0.09059045791058458</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>-0.131535398275591</v>
+        <v>0.0742278133916868</v>
       </c>
       <c r="C77">
-        <v>0.01712129949052741</v>
+        <v>0.02593477704351358</v>
       </c>
       <c r="D77">
-        <v>-0.06353292384320246</v>
+        <v>-0.0777080850552542</v>
       </c>
       <c r="E77">
-        <v>-0.08421047617642897</v>
+        <v>0.01035492227351482</v>
       </c>
       <c r="F77">
-        <v>-0.1870604221533383</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6">
+        <v>0.01090175520289524</v>
+      </c>
+      <c r="G77">
+        <v>0.1159606185581131</v>
+      </c>
+      <c r="H77">
+        <v>-0.0665546651149158</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>-0.04691640805968356</v>
+        <v>0.03452931820569409</v>
       </c>
       <c r="C78">
-        <v>-0.012514123743803</v>
+        <v>0.01758279499931352</v>
       </c>
       <c r="D78">
-        <v>-0.02923027655057385</v>
+        <v>-0.05184497663656389</v>
       </c>
       <c r="E78">
-        <v>-0.1017927656436238</v>
+        <v>-0.005767447604167862</v>
       </c>
       <c r="F78">
-        <v>-0.0301627024808874</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6">
+        <v>0.05210750412960132</v>
+      </c>
+      <c r="G78">
+        <v>0.04850384899852106</v>
+      </c>
+      <c r="H78">
+        <v>0.02729772602019905</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2277,50 +2751,68 @@
       <c r="F79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:6">
+      <c r="G79">
+        <v>0</v>
+      </c>
+      <c r="H79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>-0.195595244038835</v>
+        <v>0.1681081320637571</v>
       </c>
       <c r="C80">
-        <v>0.140574950530729</v>
+        <v>0.09018094462466715</v>
       </c>
       <c r="D80">
-        <v>0.9273911574509299</v>
+        <v>0.02552612746075112</v>
       </c>
       <c r="E80">
-        <v>-0.2415744932721695</v>
+        <v>-0.9610361346061218</v>
       </c>
       <c r="F80">
-        <v>-0.04469265485172681</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6">
+        <v>-0.1084184329026828</v>
+      </c>
+      <c r="G80">
+        <v>0.103747168838846</v>
+      </c>
+      <c r="H80">
+        <v>0.007489664686988177</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>-0.1537307305787374</v>
+        <v>0.1430428951012118</v>
       </c>
       <c r="C81">
-        <v>-0.1047474291779475</v>
+        <v>0.1032489608275135</v>
       </c>
       <c r="D81">
-        <v>-0.02173722862172972</v>
+        <v>-0.04656540733870576</v>
       </c>
       <c r="E81">
-        <v>-0.07315870518164089</v>
+        <v>0.001664811256607596</v>
       </c>
       <c r="F81">
-        <v>0.1815428029178019</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6">
+        <v>0.1097395010808061</v>
+      </c>
+      <c r="G81">
+        <v>-0.1147342664074188</v>
+      </c>
+      <c r="H81">
+        <v>-0.06921572416396947</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -2337,30 +2829,42 @@
       <c r="F82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:6">
+      <c r="G82">
+        <v>0</v>
+      </c>
+      <c r="H82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>-0.04862838114752032</v>
+        <v>0.03721385374988161</v>
       </c>
       <c r="C83">
-        <v>0.00960845925196085</v>
+        <v>0.01562989491072295</v>
       </c>
       <c r="D83">
-        <v>-0.03833006466730212</v>
+        <v>-0.01961646324262867</v>
       </c>
       <c r="E83">
-        <v>-0.03638541094586681</v>
+        <v>0.01312812697959504</v>
       </c>
       <c r="F83">
-        <v>-0.07055009377901302</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6">
+        <v>0.01379438841796567</v>
+      </c>
+      <c r="G83">
+        <v>0.05536014220040288</v>
+      </c>
+      <c r="H83">
+        <v>0.01785853908891153</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2377,230 +2881,302 @@
       <c r="F84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:6">
+      <c r="G84">
+        <v>0</v>
+      </c>
+      <c r="H84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>-0.2246706253641323</v>
+        <v>0.2007754681182406</v>
       </c>
       <c r="C85">
-        <v>-0.0986371567191698</v>
+        <v>0.1312387000596755</v>
       </c>
       <c r="D85">
-        <v>-0.03667629458723483</v>
+        <v>-0.09446197832200119</v>
       </c>
       <c r="E85">
-        <v>-0.06409054382978235</v>
+        <v>0.01236373895475142</v>
       </c>
       <c r="F85">
-        <v>0.1991064736669998</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6">
+        <v>0.1414006583280319</v>
+      </c>
+      <c r="G85">
+        <v>-0.1693370847876072</v>
+      </c>
+      <c r="H85">
+        <v>-0.06116075869586017</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>0.003636295630065854</v>
+        <v>0.0111253464843363</v>
       </c>
       <c r="C86">
-        <v>0.00446108272439762</v>
+        <v>-0.0004360585562340535</v>
       </c>
       <c r="D86">
-        <v>-0.004891952780086293</v>
+        <v>-0.01068314190838345</v>
       </c>
       <c r="E86">
-        <v>-0.06908909338744904</v>
+        <v>0.006762458202892619</v>
       </c>
       <c r="F86">
-        <v>-0.06936592364982848</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6">
+        <v>0.0083239108838443</v>
+      </c>
+      <c r="G86">
+        <v>0.07639026484890923</v>
+      </c>
+      <c r="H86">
+        <v>0.03360499600262841</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>-0.02570271400584508</v>
+        <v>0.02442745312856574</v>
       </c>
       <c r="C87">
-        <v>-0.009967037807370516</v>
+        <v>0.007667885718946004</v>
       </c>
       <c r="D87">
-        <v>-0.00787163014638426</v>
+        <v>-0.02399118440965397</v>
       </c>
       <c r="E87">
-        <v>-0.03366271701167436</v>
+        <v>-0.0006629524132801723</v>
       </c>
       <c r="F87">
-        <v>-0.06467167829138597</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6">
+        <v>0.03015953729020544</v>
+      </c>
+      <c r="G87">
+        <v>0.08812159127952073</v>
+      </c>
+      <c r="H87">
+        <v>0.02334251587497977</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>-0.008179303578462969</v>
+        <v>0.04068992164512794</v>
       </c>
       <c r="C88">
-        <v>-0.02048547562719335</v>
+        <v>-0.001260387412622025</v>
       </c>
       <c r="D88">
-        <v>0.02192858567616774</v>
+        <v>0.009290931889321737</v>
       </c>
       <c r="E88">
-        <v>0.003382748885507309</v>
+        <v>-0.005844220870420502</v>
       </c>
       <c r="F88">
-        <v>-0.02944272922635378</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6">
+        <v>0.01111647180318655</v>
+      </c>
+      <c r="G88">
+        <v>-0.003603821290865293</v>
+      </c>
+      <c r="H88">
+        <v>0.01207284681544225</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>-0.1258628380274388</v>
+        <v>0.1945514136808279</v>
       </c>
       <c r="C89">
-        <v>-0.0855203392875331</v>
+        <v>0.0731691709981012</v>
       </c>
       <c r="D89">
-        <v>0.03451186756648048</v>
+        <v>0.3158887620683883</v>
       </c>
       <c r="E89">
-        <v>0.3073544831951209</v>
+        <v>0.08917960640554101</v>
       </c>
       <c r="F89">
-        <v>-0.08826884660490868</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6">
+        <v>-0.192700553867764</v>
+      </c>
+      <c r="G89">
+        <v>0.008748796113727492</v>
+      </c>
+      <c r="H89">
+        <v>-0.0197554564018636</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>-0.117705233276613</v>
+        <v>0.1511792753037045</v>
       </c>
       <c r="C90">
-        <v>-0.09053530564744797</v>
+        <v>0.05708217165671423</v>
       </c>
       <c r="D90">
-        <v>0.08595174090491402</v>
+        <v>0.2744009535563155</v>
       </c>
       <c r="E90">
-        <v>0.2814854681269633</v>
+        <v>0.05847642347820686</v>
       </c>
       <c r="F90">
-        <v>-0.05416783127519108</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6">
+        <v>-0.1793517499654951</v>
+      </c>
+      <c r="G90">
+        <v>-0.02895376817442104</v>
+      </c>
+      <c r="H90">
+        <v>-0.03935191222409829</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>-0.2881895917321106</v>
+        <v>0.2208471929576084</v>
       </c>
       <c r="C91">
-        <v>-0.09953287393742426</v>
+        <v>0.1564418398036641</v>
       </c>
       <c r="D91">
-        <v>-0.06188147511674678</v>
+        <v>-0.09160611892741154</v>
       </c>
       <c r="E91">
-        <v>-0.0638320530370778</v>
+        <v>0.01713388667896401</v>
       </c>
       <c r="F91">
-        <v>0.2470786013821368</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6">
+        <v>0.1465320885514844</v>
+      </c>
+      <c r="G91">
+        <v>-0.2194511392987764</v>
+      </c>
+      <c r="H91">
+        <v>-0.111907615972745</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>-0.1832265051342241</v>
+        <v>0.2073775771295726</v>
       </c>
       <c r="C92">
-        <v>-0.08384651959026589</v>
+        <v>0.1398043153997065</v>
       </c>
       <c r="D92">
-        <v>0.1097520757218179</v>
+        <v>0.2432505424918995</v>
       </c>
       <c r="E92">
-        <v>0.4658011465482517</v>
+        <v>0.04671395092426629</v>
       </c>
       <c r="F92">
-        <v>-0.1223885210012969</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6">
+        <v>-0.1534718360411886</v>
+      </c>
+      <c r="G92">
+        <v>-0.03821252138442423</v>
+      </c>
+      <c r="H92">
+        <v>-0.1255289694925025</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>-0.1314412316869871</v>
+        <v>0.1734375393840315</v>
       </c>
       <c r="C93">
-        <v>-0.07162493035823922</v>
+        <v>0.07277267589512074</v>
       </c>
       <c r="D93">
-        <v>0.09550491760899074</v>
+        <v>0.2912872001262554</v>
       </c>
       <c r="E93">
-        <v>0.3893060599280311</v>
+        <v>0.07538011346703216</v>
       </c>
       <c r="F93">
-        <v>-0.00268249708385878</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6">
+        <v>-0.2186030111227193</v>
+      </c>
+      <c r="G93">
+        <v>-0.03189035829981755</v>
+      </c>
+      <c r="H93">
+        <v>0.01785379533671491</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>-0.2625175922477664</v>
+        <v>0.2404574037034265</v>
       </c>
       <c r="C94">
-        <v>-0.1340663735045805</v>
+        <v>0.1494366818055748</v>
       </c>
       <c r="D94">
-        <v>-0.03474402498967924</v>
+        <v>-0.06474925896044106</v>
       </c>
       <c r="E94">
-        <v>-0.08404589077593956</v>
+        <v>0.03514320174703186</v>
       </c>
       <c r="F94">
-        <v>0.2995729837098932</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6">
+        <v>0.1650897370535493</v>
+      </c>
+      <c r="G94">
+        <v>-0.2326563230186825</v>
+      </c>
+      <c r="H94">
+        <v>-0.1293078915372381</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>-0.08387593271504966</v>
+        <v>0.06381088431439</v>
       </c>
       <c r="C95">
-        <v>-0.02160424368891018</v>
+        <v>0.04790585828098672</v>
       </c>
       <c r="D95">
-        <v>-0.06940890109317091</v>
+        <v>-0.07418921408762487</v>
       </c>
       <c r="E95">
-        <v>-0.07435094451768741</v>
+        <v>0.07107205030690163</v>
       </c>
       <c r="F95">
-        <v>-0.04889504628122807</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6">
+        <v>0.03462893958817751</v>
+      </c>
+      <c r="G95">
+        <v>0.06467846079670928</v>
+      </c>
+      <c r="H95">
+        <v>0.009041187612088119</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2617,10 +3193,16 @@
       <c r="F96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:6">
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2637,30 +3219,42 @@
       <c r="F97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:6">
+      <c r="G97">
+        <v>0</v>
+      </c>
+      <c r="H97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>-0.1888246506029022</v>
+        <v>0.1640908757811871</v>
       </c>
       <c r="C98">
-        <v>-0.05010973385712097</v>
+        <v>0.1061693980053602</v>
       </c>
       <c r="D98">
-        <v>-0.04491310158725179</v>
+        <v>-0.01972505324997666</v>
       </c>
       <c r="E98">
-        <v>0.06515072338887164</v>
+        <v>0.05815530682662471</v>
       </c>
       <c r="F98">
-        <v>-0.08559595414851046</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6">
+        <v>0.03294555399203882</v>
+      </c>
+      <c r="G98">
+        <v>0.1712210016086063</v>
+      </c>
+      <c r="H98">
+        <v>0.3660356699482599</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2677,10 +3271,16 @@
       <c r="F99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:6">
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2697,85 +3297,115 @@
       <c r="F100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:6">
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>-0.002679809565858264</v>
+        <v>0.01393352818809608</v>
       </c>
       <c r="C101">
-        <v>-0.02858489312312566</v>
+        <v>0.003219339592688751</v>
       </c>
       <c r="D101">
-        <v>-0.01204679711265532</v>
+        <v>-0.004040314527840205</v>
       </c>
       <c r="E101">
-        <v>-0.1183448522833293</v>
+        <v>-0.004323523128554935</v>
       </c>
       <c r="F101">
-        <v>-0.1923902784283353</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6">
+        <v>0.03706512301362578</v>
+      </c>
+      <c r="G101">
+        <v>0.09402169039939545</v>
+      </c>
+      <c r="H101">
+        <v>-0.07458150072806444</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B102">
-        <v>-0.09316551121142551</v>
+        <v>0.1025556841198641</v>
       </c>
       <c r="C102">
-        <v>-0.02909775489141109</v>
+        <v>0.05908889787444632</v>
       </c>
       <c r="D102">
-        <v>-0.01510187620811638</v>
+        <v>-0.04593291620680781</v>
       </c>
       <c r="E102">
-        <v>-0.08089950400530831</v>
+        <v>-0.0001323431034256009</v>
       </c>
       <c r="F102">
-        <v>0.1355798350448191</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6">
+        <v>0.07366045936071497</v>
+      </c>
+      <c r="G102">
+        <v>-0.1014822988440612</v>
+      </c>
+      <c r="H102">
+        <v>-0.05321207941506178</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B103">
-        <v>-0.02363298409428707</v>
+        <v>0.0213399616140044</v>
       </c>
       <c r="C103">
-        <v>-0.01049425691891178</v>
+        <v>0.01334392124663436</v>
       </c>
       <c r="D103">
-        <v>-0.01055864239776371</v>
+        <v>-0.01103690399117943</v>
       </c>
       <c r="E103">
-        <v>-0.00942317872895636</v>
+        <v>-0.005823611785340789</v>
       </c>
       <c r="F103">
-        <v>0.02490523971279133</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6">
+        <v>0.01834376819264414</v>
+      </c>
+      <c r="G103">
+        <v>-0.01032829578194717</v>
+      </c>
+      <c r="H103">
+        <v>-0.00872953432585615</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B104">
-        <v>0</v>
+        <v>0.4598718845469734</v>
       </c>
       <c r="C104">
-        <v>0</v>
+        <v>-0.8646693952448653</v>
       </c>
       <c r="D104">
-        <v>0</v>
+        <v>0.06727408823852669</v>
       </c>
       <c r="E104">
-        <v>0</v>
+        <v>-0.02019829552440719</v>
       </c>
       <c r="F104">
-        <v>0</v>
+        <v>0.1561273682457123</v>
+      </c>
+      <c r="G104">
+        <v>-0.04118282094011828</v>
+      </c>
+      <c r="H104">
+        <v>-0.03103233254873589</v>
       </c>
     </row>
   </sheetData>
